--- a/data/case1/2/P2_14.xlsx
+++ b/data/case1/2/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.055964829062389754</v>
+        <v>0.1070994234211895</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999995504163053</v>
+        <v>-0.0099999994805806125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995545575473</v>
+        <v>-0.008999999487731003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399306608528363</v>
+        <v>0.28399077636663961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999995685746654</v>
+        <v>-0.0059999995050104005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995562094455</v>
+        <v>-0.005999999489596064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999484454634</v>
+        <v>-0.01999999939887509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999479567876</v>
+        <v>-0.019999999396590695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995437003406</v>
+        <v>-0.0059999994850095106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995384814042</v>
+        <v>-0.0059999994845014726</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999545483746</v>
+        <v>-0.0044999994940830845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995367734371</v>
+        <v>-0.00599999948469776</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995317756571</v>
+        <v>0.02037638542821707</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999500408087</v>
+        <v>-0.011999999447794174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995296271535</v>
+        <v>-0.0059999994864297079</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995291137864</v>
+        <v>0.025420419632430136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0060913710928476306</v>
+        <v>-0.0059999994850121752</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995134597555</v>
+        <v>-0.0089999994652769644</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999995553444734</v>
+        <v>-0.048302720236149899</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995516656384</v>
+        <v>-0.008999999472264264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999995511531594</v>
+        <v>-0.0089999994694305308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995508165398</v>
+        <v>-0.051816882489932325</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995489007389</v>
+        <v>-0.0089999994836951203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999372113628</v>
+        <v>-0.041999999264207943</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.08402909417686466</v>
+        <v>-0.041999999260199594</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995559856245</v>
+        <v>-0.0041681432169369259</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995554536056</v>
+        <v>-0.0059999994848345395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995531061501</v>
+        <v>-0.0059999994734036832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.018569650878760058</v>
+        <v>-0.011999999426913988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.025767755252982028</v>
+        <v>-0.019999999371881572</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.033828008969281953</v>
+        <v>-0.014999999398547459</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999468716446</v>
+        <v>-0.020999999359218258</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995435964237</v>
+        <v>-0.0059999994550770097</v>
       </c>
     </row>
   </sheetData>
